--- a/apps/ai/data/2. 2026-1 파견교 정보_본모집(공지용)_서울 2025.07.08.xlsx
+++ b/apps/ai/data/2. 2026-1 파견교 정보_본모집(공지용)_서울 2025.07.08.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\day0\apps\ai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\day0\apps\ai\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3A9F644-329B-44AA-A48F-A5D0ADA02530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF8273B-548A-4D4F-8EF2-D3618888219C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3648" yWindow="2916" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="본모집_영미유럽기타" sheetId="1" r:id="rId1"/>
@@ -44,6 +44,9 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -5389,6 +5392,9 @@
     <xf numFmtId="49" fontId="22" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5415,9 +5421,6 @@
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5987,11 +5990,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AF122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="8" topLeftCell="Q38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="8" topLeftCell="Q9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
       <selection pane="bottomRight" activeCell="AA44" sqref="AA44"/>
@@ -6032,51 +6034,51 @@
       <c r="A2"/>
       <c r="B2"/>
       <c r="C2"/>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
     </row>
     <row r="3" spans="1:32" s="13" customFormat="1" ht="150" hidden="1" customHeight="1">
       <c r="A3"/>
       <c r="B3"/>
       <c r="C3"/>
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="59" t="s">
         <v>412</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="58"/>
-      <c r="U3" s="58"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
     </row>
     <row r="4" spans="1:32" s="13" customFormat="1" ht="24" hidden="1" customHeight="1" thickBot="1">
       <c r="A4"/>
@@ -6092,129 +6094,129 @@
       <c r="K4"/>
     </row>
     <row r="5" spans="1:32" s="13" customFormat="1" ht="24" hidden="1" customHeight="1">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="60"/>
+      <c r="B5" s="61"/>
       <c r="C5"/>
-      <c r="D5" s="63" t="s">
+      <c r="D5" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="63"/>
-      <c r="S5" s="63"/>
-      <c r="T5" s="63"/>
-      <c r="U5" s="63"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="64"/>
+      <c r="T5" s="64"/>
+      <c r="U5" s="64"/>
     </row>
     <row r="6" spans="1:32" s="13" customFormat="1" ht="24" hidden="1" customHeight="1">
-      <c r="A6" s="61"/>
-      <c r="B6" s="62"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="63"/>
       <c r="C6"/>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="65" t="s">
         <v>382</v>
       </c>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="64"/>
-      <c r="S6" s="64"/>
-      <c r="T6" s="64"/>
-      <c r="U6" s="64"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="65"/>
+      <c r="P6" s="65"/>
+      <c r="Q6" s="65"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="65"/>
+      <c r="T6" s="65"/>
+      <c r="U6" s="65"/>
     </row>
     <row r="7" spans="1:32" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="65" t="s">
+      <c r="D7" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="65" t="s">
+      <c r="E7" s="56" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="G7" s="65" t="s">
+      <c r="G7" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="65" t="s">
+      <c r="H7" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="65" t="s">
+      <c r="I7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="65" t="s">
+      <c r="J7" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="65"/>
-      <c r="O7" s="65"/>
-      <c r="P7" s="65"/>
-      <c r="Q7" s="65"/>
-      <c r="R7" s="65"/>
-      <c r="S7" s="65"/>
-      <c r="T7" s="65" t="s">
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="U7" s="65"/>
-      <c r="V7" s="65"/>
-      <c r="W7" s="65"/>
-      <c r="X7" s="65"/>
-      <c r="Y7" s="65"/>
-      <c r="Z7" s="65" t="s">
+      <c r="U7" s="56"/>
+      <c r="V7" s="56"/>
+      <c r="W7" s="56"/>
+      <c r="X7" s="56"/>
+      <c r="Y7" s="56"/>
+      <c r="Z7" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="AA7" s="65"/>
-      <c r="AB7" s="65" t="s">
+      <c r="AA7" s="56"/>
+      <c r="AB7" s="56" t="s">
         <v>391</v>
       </c>
-      <c r="AC7" s="65"/>
-      <c r="AD7" s="65"/>
-      <c r="AE7" s="65"/>
-      <c r="AF7" s="65"/>
+      <c r="AC7" s="56"/>
+      <c r="AD7" s="56"/>
+      <c r="AE7" s="56"/>
+      <c r="AF7" s="56"/>
     </row>
     <row r="8" spans="1:32" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="A8" s="65"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
       <c r="F8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
       <c r="J8" s="3" t="s">
         <v>13</v>
       </c>
@@ -6285,7 +6287,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:32" s="5" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="9" spans="1:32" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>383</v>
       </c>
@@ -6383,7 +6385,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="10" spans="1:32" s="5" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="10" spans="1:32" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>48</v>
       </c>
@@ -6481,7 +6483,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="11" spans="1:32" s="5" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="11" spans="1:32" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>50</v>
       </c>
@@ -6577,7 +6579,7 @@
         <v>45977</v>
       </c>
     </row>
-    <row r="12" spans="1:32" s="5" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="12" spans="1:32" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>53</v>
       </c>
@@ -6673,7 +6675,7 @@
         <v>45976</v>
       </c>
     </row>
-    <row r="13" spans="1:32" s="5" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="13" spans="1:32" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>55</v>
       </c>
@@ -6771,7 +6773,7 @@
         <v>45910</v>
       </c>
     </row>
-    <row r="14" spans="1:32" s="5" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="14" spans="1:32" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>57</v>
       </c>
@@ -6867,7 +6869,7 @@
         <v>45962</v>
       </c>
     </row>
-    <row r="15" spans="1:32" s="5" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="15" spans="1:32" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>60</v>
       </c>
@@ -8115,7 +8117,7 @@
         <v>45976</v>
       </c>
     </row>
-    <row r="28" spans="1:32" s="5" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="28" spans="1:32" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A28" s="4" t="s">
         <v>79</v>
       </c>
@@ -8211,7 +8213,7 @@
         <v>45992</v>
       </c>
     </row>
-    <row r="29" spans="1:32" s="5" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="29" spans="1:32" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A29" s="4" t="s">
         <v>253</v>
       </c>
@@ -8307,7 +8309,7 @@
         <v>45962</v>
       </c>
     </row>
-    <row r="30" spans="1:32" s="5" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="30" spans="1:32" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A30" s="4" t="s">
         <v>80</v>
       </c>
@@ -8401,7 +8403,7 @@
         <v>45991</v>
       </c>
     </row>
-    <row r="31" spans="1:32" s="5" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="31" spans="1:32" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A31" s="4" t="s">
         <v>81</v>
       </c>
@@ -8495,7 +8497,7 @@
         <v>45976</v>
       </c>
     </row>
-    <row r="32" spans="1:32" s="5" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="32" spans="1:32" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A32" s="4" t="s">
         <v>82</v>
       </c>
@@ -8589,7 +8591,7 @@
         <v>45991</v>
       </c>
     </row>
-    <row r="33" spans="1:32" s="5" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="33" spans="1:32" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A33" s="4" t="s">
         <v>83</v>
       </c>
@@ -8687,7 +8689,7 @@
         <v>45991</v>
       </c>
     </row>
-    <row r="34" spans="1:32" s="5" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="34" spans="1:32" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A34" s="4" t="s">
         <v>84</v>
       </c>
@@ -8781,7 +8783,7 @@
         <v>46022</v>
       </c>
     </row>
-    <row r="35" spans="1:32" s="5" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="35" spans="1:32" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A35" s="4" t="s">
         <v>85</v>
       </c>
@@ -8877,7 +8879,7 @@
         <v>45926</v>
       </c>
     </row>
-    <row r="36" spans="1:32" s="5" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="36" spans="1:32" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A36" s="4" t="s">
         <v>88</v>
       </c>
@@ -8971,7 +8973,7 @@
         <v>45989</v>
       </c>
     </row>
-    <row r="37" spans="1:32" s="5" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="37" spans="1:32" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A37" s="4" t="s">
         <v>90</v>
       </c>
@@ -10123,7 +10125,7 @@
         <v>45931</v>
       </c>
     </row>
-    <row r="49" spans="1:32" s="5" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="49" spans="1:32" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A49" s="4" t="s">
         <v>108</v>
       </c>
@@ -10219,7 +10221,7 @@
         <v>45976</v>
       </c>
     </row>
-    <row r="50" spans="1:32" s="5" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="50" spans="1:32" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A50" s="4" t="s">
         <v>110</v>
       </c>
@@ -10317,7 +10319,7 @@
         <v>45937</v>
       </c>
     </row>
-    <row r="51" spans="1:32" s="5" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="51" spans="1:32" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A51" s="4" t="s">
         <v>111</v>
       </c>
@@ -10413,7 +10415,7 @@
         <v>45962</v>
       </c>
     </row>
-    <row r="52" spans="1:32" s="5" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="52" spans="1:32" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A52" s="4" t="s">
         <v>113</v>
       </c>
@@ -10509,7 +10511,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="53" spans="1:32" s="5" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="53" spans="1:32" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A53" s="4" t="s">
         <v>115</v>
       </c>
@@ -10605,7 +10607,7 @@
         <v>45668</v>
       </c>
     </row>
-    <row r="54" spans="1:32" s="5" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="54" spans="1:32" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A54" s="4" t="s">
         <v>116</v>
       </c>
@@ -10701,7 +10703,7 @@
         <v>45931</v>
       </c>
     </row>
-    <row r="55" spans="1:32" s="5" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="55" spans="1:32" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A55" s="4" t="s">
         <v>117</v>
       </c>
@@ -10797,7 +10799,7 @@
         <v>45945</v>
       </c>
     </row>
-    <row r="56" spans="1:32" s="5" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="56" spans="1:32" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A56" s="4" t="s">
         <v>118</v>
       </c>
@@ -10893,7 +10895,7 @@
         <v>45945</v>
       </c>
     </row>
-    <row r="57" spans="1:32" s="5" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="57" spans="1:32" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A57" s="4" t="s">
         <v>119</v>
       </c>
@@ -10989,7 +10991,7 @@
         <v>45792</v>
       </c>
     </row>
-    <row r="58" spans="1:32" s="5" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="58" spans="1:32" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A58" s="4" t="s">
         <v>120</v>
       </c>
@@ -11087,7 +11089,7 @@
         <v>45945</v>
       </c>
     </row>
-    <row r="59" spans="1:32" s="5" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="59" spans="1:32" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A59" s="4" t="s">
         <v>122</v>
       </c>
@@ -11181,7 +11183,7 @@
         <v>45962</v>
       </c>
     </row>
-    <row r="60" spans="1:32" s="5" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="60" spans="1:32" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A60" s="4" t="s">
         <v>124</v>
       </c>
@@ -11279,7 +11281,7 @@
         <v>45950</v>
       </c>
     </row>
-    <row r="61" spans="1:32" s="5" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="61" spans="1:32" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A61" s="4" t="s">
         <v>125</v>
       </c>
@@ -11373,7 +11375,7 @@
         <v>45945</v>
       </c>
     </row>
-    <row r="62" spans="1:32" s="5" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="62" spans="1:32" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A62" s="4" t="s">
         <v>126</v>
       </c>
@@ -11469,7 +11471,7 @@
         <v>45945</v>
       </c>
     </row>
-    <row r="63" spans="1:32" s="5" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="63" spans="1:32" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A63" s="4" t="s">
         <v>127</v>
       </c>
@@ -11565,7 +11567,7 @@
         <v>45960</v>
       </c>
     </row>
-    <row r="64" spans="1:32" s="5" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="64" spans="1:32" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A64" s="4" t="s">
         <v>129</v>
       </c>
@@ -11661,7 +11663,7 @@
         <v>45978</v>
       </c>
     </row>
-    <row r="65" spans="1:32" s="5" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="65" spans="1:32" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A65" s="4" t="s">
         <v>130</v>
       </c>
@@ -11759,7 +11761,7 @@
         <v>45991</v>
       </c>
     </row>
-    <row r="66" spans="1:32" s="5" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="66" spans="1:32" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A66" s="4" t="s">
         <v>131</v>
       </c>
@@ -11855,7 +11857,7 @@
         <v>45992</v>
       </c>
     </row>
-    <row r="67" spans="1:32" s="5" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="67" spans="1:32" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A67" s="4" t="s">
         <v>132</v>
       </c>
@@ -11951,7 +11953,7 @@
         <v>45976</v>
       </c>
     </row>
-    <row r="68" spans="1:32" s="5" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="68" spans="1:32" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A68" s="4" t="s">
         <v>133</v>
       </c>
@@ -12049,7 +12051,7 @@
         <v>46003</v>
       </c>
     </row>
-    <row r="69" spans="1:32" s="5" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="69" spans="1:32" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A69" s="4" t="s">
         <v>135</v>
       </c>
@@ -12145,7 +12147,7 @@
         <v>45961</v>
       </c>
     </row>
-    <row r="70" spans="1:32" s="5" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="70" spans="1:32" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A70" s="4" t="s">
         <v>136</v>
       </c>
@@ -12239,7 +12241,7 @@
         <v>45966</v>
       </c>
     </row>
-    <row r="71" spans="1:32" s="5" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="71" spans="1:32" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A71" s="4" t="s">
         <v>138</v>
       </c>
@@ -12335,7 +12337,7 @@
         <v>45991</v>
       </c>
     </row>
-    <row r="72" spans="1:32" s="5" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="72" spans="1:32" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A72" s="4" t="s">
         <v>140</v>
       </c>
@@ -12431,7 +12433,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="73" spans="1:32" s="5" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="73" spans="1:32" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A73" s="4" t="s">
         <v>144</v>
       </c>
@@ -12529,7 +12531,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="74" spans="1:32" s="5" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="74" spans="1:32" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A74" s="4" t="s">
         <v>145</v>
       </c>
@@ -12625,7 +12627,7 @@
         <v>45976</v>
       </c>
     </row>
-    <row r="75" spans="1:32" s="5" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="75" spans="1:32" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A75" s="4" t="s">
         <v>147</v>
       </c>
@@ -12719,7 +12721,7 @@
         <v>45961</v>
       </c>
     </row>
-    <row r="76" spans="1:32" s="5" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="76" spans="1:32" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A76" s="4" t="s">
         <v>150</v>
       </c>
@@ -12817,7 +12819,7 @@
         <v>45962</v>
       </c>
     </row>
-    <row r="77" spans="1:32" s="5" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="77" spans="1:32" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A77" s="4" t="s">
         <v>152</v>
       </c>
@@ -12913,7 +12915,7 @@
         <v>45991</v>
       </c>
     </row>
-    <row r="78" spans="1:32" s="5" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="78" spans="1:32" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A78" s="4" t="s">
         <v>154</v>
       </c>
@@ -13009,7 +13011,7 @@
         <v>45991</v>
       </c>
     </row>
-    <row r="79" spans="1:32" s="5" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="79" spans="1:32" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A79" s="4" t="s">
         <v>155</v>
       </c>
@@ -13105,7 +13107,7 @@
         <v>45991</v>
       </c>
     </row>
-    <row r="80" spans="1:32" s="5" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="80" spans="1:32" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A80" s="4" t="s">
         <v>156</v>
       </c>
@@ -13201,7 +13203,7 @@
         <v>45991</v>
       </c>
     </row>
-    <row r="81" spans="1:32" s="5" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="81" spans="1:32" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A81" s="4" t="s">
         <v>157</v>
       </c>
@@ -13299,7 +13301,7 @@
         <v>45960</v>
       </c>
     </row>
-    <row r="82" spans="1:32" s="5" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="82" spans="1:32" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A82" s="4" t="s">
         <v>158</v>
       </c>
@@ -13395,7 +13397,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="83" spans="1:32" s="5" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="83" spans="1:32" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A83" s="4" t="s">
         <v>159</v>
       </c>
@@ -13491,7 +13493,7 @@
         <v>45966</v>
       </c>
     </row>
-    <row r="84" spans="1:32" s="5" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="84" spans="1:32" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A84" s="4" t="s">
         <v>160</v>
       </c>
@@ -13587,7 +13589,7 @@
         <v>45931</v>
       </c>
     </row>
-    <row r="85" spans="1:32" s="5" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="85" spans="1:32" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A85" s="4" t="s">
         <v>161</v>
       </c>
@@ -13683,7 +13685,7 @@
         <v>45961</v>
       </c>
     </row>
-    <row r="86" spans="1:32" s="5" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="86" spans="1:32" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A86" s="4" t="s">
         <v>162</v>
       </c>
@@ -13777,7 +13779,7 @@
         <v>45945</v>
       </c>
     </row>
-    <row r="87" spans="1:32" s="5" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="87" spans="1:32" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A87" s="4" t="s">
         <v>163</v>
       </c>
@@ -13873,7 +13875,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="88" spans="1:32" s="5" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="88" spans="1:32" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A88" s="4" t="s">
         <v>165</v>
       </c>
@@ -13969,7 +13971,7 @@
         <v>45931</v>
       </c>
     </row>
-    <row r="89" spans="1:32" s="5" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="89" spans="1:32" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A89" s="4" t="s">
         <v>167</v>
       </c>
@@ -14065,7 +14067,7 @@
         <v>45901</v>
       </c>
     </row>
-    <row r="90" spans="1:32" s="7" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="90" spans="1:32" s="7" customFormat="1" ht="24" customHeight="1">
       <c r="A90" s="4" t="s">
         <v>168</v>
       </c>
@@ -14161,7 +14163,7 @@
         <v>45940</v>
       </c>
     </row>
-    <row r="91" spans="1:32" s="7" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="91" spans="1:32" s="7" customFormat="1" ht="24" customHeight="1">
       <c r="A91" s="4" t="s">
         <v>169</v>
       </c>
@@ -14259,7 +14261,7 @@
         <v>45991</v>
       </c>
     </row>
-    <row r="92" spans="1:32" s="7" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="92" spans="1:32" s="7" customFormat="1" ht="24" customHeight="1">
       <c r="A92" s="4" t="s">
         <v>171</v>
       </c>
@@ -14353,7 +14355,7 @@
         <v>45976</v>
       </c>
     </row>
-    <row r="93" spans="1:32" s="7" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="93" spans="1:32" s="7" customFormat="1" ht="24" customHeight="1">
       <c r="A93" s="4" t="s">
         <v>172</v>
       </c>
@@ -14447,7 +14449,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="94" spans="1:32" s="7" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="94" spans="1:32" s="7" customFormat="1" ht="24" customHeight="1">
       <c r="A94" s="4" t="s">
         <v>173</v>
       </c>
@@ -14539,7 +14541,7 @@
         <v>45961</v>
       </c>
     </row>
-    <row r="95" spans="1:32" s="5" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="95" spans="1:32" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A95" s="4" t="s">
         <v>174</v>
       </c>
@@ -14635,7 +14637,7 @@
         <v>45976</v>
       </c>
     </row>
-    <row r="96" spans="1:32" s="5" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="96" spans="1:32" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A96" s="4" t="s">
         <v>175</v>
       </c>
@@ -14731,7 +14733,7 @@
         <v>45960</v>
       </c>
     </row>
-    <row r="97" spans="1:32" s="5" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="97" spans="1:32" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A97" s="4" t="s">
         <v>176</v>
       </c>
@@ -14827,7 +14829,7 @@
         <v>45931</v>
       </c>
     </row>
-    <row r="98" spans="1:32" s="5" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="98" spans="1:32" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A98" s="4" t="s">
         <v>179</v>
       </c>
@@ -14923,7 +14925,7 @@
         <v>45962</v>
       </c>
     </row>
-    <row r="99" spans="1:32" s="8" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="99" spans="1:32" s="8" customFormat="1" ht="24" customHeight="1">
       <c r="A99" s="4" t="s">
         <v>180</v>
       </c>
@@ -15019,7 +15021,7 @@
         <v>45991</v>
       </c>
     </row>
-    <row r="100" spans="1:32" s="8" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="100" spans="1:32" s="8" customFormat="1" ht="24" customHeight="1">
       <c r="A100" s="4" t="s">
         <v>183</v>
       </c>
@@ -15117,7 +15119,7 @@
         <v>45962</v>
       </c>
     </row>
-    <row r="101" spans="1:32" s="8" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="101" spans="1:32" s="8" customFormat="1" ht="24" customHeight="1">
       <c r="A101" s="4" t="s">
         <v>184</v>
       </c>
@@ -15213,7 +15215,7 @@
         <v>45976</v>
       </c>
     </row>
-    <row r="102" spans="1:32" s="8" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="102" spans="1:32" s="8" customFormat="1" ht="24" customHeight="1">
       <c r="A102" s="4" t="s">
         <v>187</v>
       </c>
@@ -15311,7 +15313,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="103" spans="1:32" s="8" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="103" spans="1:32" s="8" customFormat="1" ht="24" customHeight="1">
       <c r="A103" s="4" t="s">
         <v>188</v>
       </c>
@@ -15405,7 +15407,7 @@
         <v>45950</v>
       </c>
     </row>
-    <row r="104" spans="1:32" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="104" spans="1:32" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A104" s="4" t="s">
         <v>189</v>
       </c>
@@ -15501,7 +15503,7 @@
         <v>45945</v>
       </c>
     </row>
-    <row r="105" spans="1:32" ht="24" hidden="1" customHeight="1">
+    <row r="105" spans="1:32" ht="24" customHeight="1">
       <c r="A105" s="4" t="s">
         <v>190</v>
       </c>
@@ -15597,7 +15599,7 @@
         <v>46336</v>
       </c>
     </row>
-    <row r="106" spans="1:32" ht="24" hidden="1" customHeight="1">
+    <row r="106" spans="1:32" ht="24" customHeight="1">
       <c r="A106" s="4" t="s">
         <v>191</v>
       </c>
@@ -15693,7 +15695,7 @@
         <v>45945</v>
       </c>
     </row>
-    <row r="107" spans="1:32" ht="24" hidden="1" customHeight="1">
+    <row r="107" spans="1:32" ht="24" customHeight="1">
       <c r="A107" s="4" t="s">
         <v>192</v>
       </c>
@@ -15787,7 +15789,7 @@
         <v>45962</v>
       </c>
     </row>
-    <row r="108" spans="1:32" s="11" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="108" spans="1:32" s="11" customFormat="1" ht="24" customHeight="1">
       <c r="A108" s="4" t="s">
         <v>193</v>
       </c>
@@ -15883,7 +15885,7 @@
         <v>45960</v>
       </c>
     </row>
-    <row r="109" spans="1:32" s="8" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="109" spans="1:32" s="8" customFormat="1" ht="24" customHeight="1">
       <c r="A109" s="4" t="s">
         <v>195</v>
       </c>
@@ -15977,7 +15979,7 @@
         <v>45961</v>
       </c>
     </row>
-    <row r="110" spans="1:32" ht="24" hidden="1" customHeight="1">
+    <row r="110" spans="1:32" ht="24" customHeight="1">
       <c r="A110" s="4" t="s">
         <v>196</v>
       </c>
@@ -16073,7 +16075,7 @@
         <v>45960</v>
       </c>
     </row>
-    <row r="111" spans="1:32" ht="24" hidden="1" customHeight="1">
+    <row r="111" spans="1:32" ht="24" customHeight="1">
       <c r="A111" s="4" t="s">
         <v>198</v>
       </c>
@@ -16169,7 +16171,7 @@
         <v>45950</v>
       </c>
     </row>
-    <row r="112" spans="1:32" ht="24" hidden="1" customHeight="1">
+    <row r="112" spans="1:32" ht="24" customHeight="1">
       <c r="A112" s="4" t="s">
         <v>199</v>
       </c>
@@ -16265,7 +16267,7 @@
         <v>46113</v>
       </c>
     </row>
-    <row r="113" spans="1:32" ht="24" hidden="1" customHeight="1">
+    <row r="113" spans="1:32" ht="24" customHeight="1">
       <c r="A113" s="4" t="s">
         <v>201</v>
       </c>
@@ -16361,7 +16363,7 @@
         <v>45960</v>
       </c>
     </row>
-    <row r="114" spans="1:32" ht="24" hidden="1" customHeight="1">
+    <row r="114" spans="1:32" ht="24" customHeight="1">
       <c r="A114" s="4" t="s">
         <v>202</v>
       </c>
@@ -16455,7 +16457,7 @@
         <v>45945</v>
       </c>
     </row>
-    <row r="115" spans="1:32" ht="24" hidden="1" customHeight="1">
+    <row r="115" spans="1:32" ht="24" customHeight="1">
       <c r="A115" s="4" t="s">
         <v>203</v>
       </c>
@@ -16551,7 +16553,7 @@
         <v>45945</v>
       </c>
     </row>
-    <row r="116" spans="1:32" ht="24" hidden="1" customHeight="1">
+    <row r="116" spans="1:32" ht="24" customHeight="1">
       <c r="A116" s="4" t="s">
         <v>204</v>
       </c>
@@ -16649,7 +16651,7 @@
         <v>45945</v>
       </c>
     </row>
-    <row r="117" spans="1:32" ht="24" hidden="1" customHeight="1">
+    <row r="117" spans="1:32" ht="24" customHeight="1">
       <c r="A117" s="4" t="s">
         <v>206</v>
       </c>
@@ -16743,7 +16745,7 @@
         <v>45932</v>
       </c>
     </row>
-    <row r="118" spans="1:32" ht="24" hidden="1" customHeight="1">
+    <row r="118" spans="1:32" ht="24" customHeight="1">
       <c r="A118" s="4" t="s">
         <v>207</v>
       </c>
@@ -16839,7 +16841,7 @@
         <v>45940</v>
       </c>
     </row>
-    <row r="119" spans="1:32" ht="24" hidden="1" customHeight="1">
+    <row r="119" spans="1:32" ht="24" customHeight="1">
       <c r="A119" s="4" t="s">
         <v>208</v>
       </c>
@@ -16937,7 +16939,7 @@
         <v>45945</v>
       </c>
     </row>
-    <row r="120" spans="1:32" ht="24" hidden="1" customHeight="1">
+    <row r="120" spans="1:32" ht="24" customHeight="1">
       <c r="A120" s="4" t="s">
         <v>1328</v>
       </c>
@@ -17033,7 +17035,7 @@
         <v>45931</v>
       </c>
     </row>
-    <row r="121" spans="1:32" ht="24" hidden="1" customHeight="1">
+    <row r="121" spans="1:32" ht="24" customHeight="1">
       <c r="A121" s="4" t="s">
         <v>1332</v>
       </c>
@@ -17228,17 +17230,16 @@
     <protectedRange sqref="D5:E6 G5:G6" name="범위1_1_1"/>
   </protectedRanges>
   <autoFilter ref="A8:AF122" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="독일"/>
-        <filter val="미국"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:AF119">
       <sortCondition ref="C8:C119"/>
     </sortState>
   </autoFilter>
   <mergeCells count="17">
+    <mergeCell ref="D2:U2"/>
+    <mergeCell ref="D3:U3"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="D5:U5"/>
+    <mergeCell ref="D6:U6"/>
     <mergeCell ref="AB7:AF7"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -17251,11 +17252,6 @@
     <mergeCell ref="J7:S7"/>
     <mergeCell ref="T7:Y7"/>
     <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="D2:U2"/>
-    <mergeCell ref="D3:U3"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="D5:U5"/>
-    <mergeCell ref="D6:U6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B7:B8">
@@ -17288,11 +17284,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AF37"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="5" ySplit="8" topLeftCell="F22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="8" topLeftCell="F9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="C6" sqref="A1:XFD6"/>
@@ -17338,26 +17333,26 @@
       <c r="A2" s="48"/>
       <c r="B2" s="48"/>
       <c r="C2" s="48"/>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
       <c r="AB2" s="34"/>
       <c r="AC2" s="34"/>
       <c r="AD2" s="34"/>
@@ -17368,26 +17363,26 @@
       <c r="A3" s="48"/>
       <c r="B3" s="48"/>
       <c r="C3" s="48"/>
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="59" t="s">
         <v>412</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="58"/>
-      <c r="U3" s="58"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
       <c r="AB3" s="34"/>
       <c r="AC3" s="34"/>
       <c r="AD3" s="34"/>
@@ -17413,31 +17408,31 @@
       <c r="AF4" s="34"/>
     </row>
     <row r="5" spans="1:32" s="13" customFormat="1" ht="24" hidden="1" customHeight="1">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="60"/>
+      <c r="B5" s="61"/>
       <c r="C5" s="48"/>
-      <c r="D5" s="63" t="s">
+      <c r="D5" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="63"/>
-      <c r="S5" s="63"/>
-      <c r="T5" s="63"/>
-      <c r="U5" s="63"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="64"/>
+      <c r="T5" s="64"/>
+      <c r="U5" s="64"/>
       <c r="AB5" s="34"/>
       <c r="AC5" s="34"/>
       <c r="AD5" s="34"/>
@@ -17445,29 +17440,29 @@
       <c r="AF5" s="34"/>
     </row>
     <row r="6" spans="1:32" s="13" customFormat="1" ht="24" hidden="1" customHeight="1">
-      <c r="A6" s="61"/>
-      <c r="B6" s="62"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="63"/>
       <c r="C6" s="48"/>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="65" t="s">
         <v>382</v>
       </c>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="64"/>
-      <c r="S6" s="64"/>
-      <c r="T6" s="64"/>
-      <c r="U6" s="64"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="65"/>
+      <c r="P6" s="65"/>
+      <c r="Q6" s="65"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="65"/>
+      <c r="T6" s="65"/>
+      <c r="U6" s="65"/>
       <c r="AB6" s="34"/>
       <c r="AC6" s="34"/>
       <c r="AD6" s="34"/>
@@ -17475,57 +17470,57 @@
       <c r="AF6" s="34"/>
     </row>
     <row r="7" spans="1:32" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="65" t="s">
+      <c r="D7" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="65" t="s">
+      <c r="E7" s="56" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="36" t="s">
         <v>390</v>
       </c>
-      <c r="G7" s="65" t="s">
+      <c r="G7" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="65" t="s">
+      <c r="H7" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="65" t="s">
+      <c r="I7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="65" t="s">
+      <c r="J7" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="65"/>
-      <c r="O7" s="65"/>
-      <c r="P7" s="65"/>
-      <c r="Q7" s="65"/>
-      <c r="R7" s="65"/>
-      <c r="S7" s="65"/>
-      <c r="T7" s="65" t="s">
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="U7" s="65"/>
-      <c r="V7" s="65"/>
-      <c r="W7" s="65"/>
-      <c r="X7" s="65"/>
-      <c r="Y7" s="65"/>
-      <c r="Z7" s="65" t="s">
+      <c r="U7" s="56"/>
+      <c r="V7" s="56"/>
+      <c r="W7" s="56"/>
+      <c r="X7" s="56"/>
+      <c r="Y7" s="56"/>
+      <c r="Z7" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="AA7" s="65"/>
+      <c r="AA7" s="56"/>
       <c r="AB7" s="66" t="s">
         <v>11</v>
       </c>
@@ -17535,17 +17530,17 @@
       <c r="AF7" s="66"/>
     </row>
     <row r="8" spans="1:32" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="A8" s="65"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
       <c r="F8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
       <c r="J8" s="3" t="s">
         <v>13</v>
       </c>
@@ -17616,7 +17611,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:32" s="5" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="9" spans="1:32" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>383</v>
       </c>
@@ -17712,7 +17707,7 @@
         <v>45961</v>
       </c>
     </row>
-    <row r="10" spans="1:32" s="5" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="10" spans="1:32" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>1313</v>
       </c>
@@ -17808,7 +17803,7 @@
         <v>45972</v>
       </c>
     </row>
-    <row r="11" spans="1:32" s="5" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="11" spans="1:32" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>995</v>
       </c>
@@ -17902,7 +17897,7 @@
         <v>45950</v>
       </c>
     </row>
-    <row r="12" spans="1:32" s="5" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="12" spans="1:32" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>1314</v>
       </c>
@@ -17998,7 +17993,7 @@
         <v>45976</v>
       </c>
     </row>
-    <row r="13" spans="1:32" s="5" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="13" spans="1:32" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>55</v>
       </c>
@@ -18096,7 +18091,7 @@
         <v>45971</v>
       </c>
     </row>
-    <row r="14" spans="1:32" s="5" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="14" spans="1:32" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>57</v>
       </c>
@@ -18192,7 +18187,7 @@
         <v>45960</v>
       </c>
     </row>
-    <row r="15" spans="1:32" s="5" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="15" spans="1:32" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>60</v>
       </c>
@@ -19836,7 +19831,7 @@
         <v>45945</v>
       </c>
     </row>
-    <row r="32" spans="1:32" s="5" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="32" spans="1:32" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A32" s="4" t="s">
         <v>82</v>
       </c>
@@ -19930,7 +19925,7 @@
         <v>45938</v>
       </c>
     </row>
-    <row r="33" spans="1:32" s="5" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="33" spans="1:32" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A33" s="4" t="s">
         <v>83</v>
       </c>
@@ -20026,7 +20021,7 @@
         <v>46183</v>
       </c>
     </row>
-    <row r="34" spans="1:32" s="5" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="34" spans="1:32" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A34" s="4" t="s">
         <v>84</v>
       </c>
@@ -20312,7 +20307,7 @@
         <v>45951</v>
       </c>
     </row>
-    <row r="37" spans="1:32" s="5" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="37" spans="1:32" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A37" s="4" t="s">
         <v>90</v>
       </c>
@@ -20413,16 +20408,16 @@
     <protectedRange sqref="D5:E6 G5:G6" name="범위1_1_1"/>
   </protectedRanges>
   <autoFilter ref="A8:AF37" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="일본"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:AF53">
       <sortCondition ref="C8"/>
     </sortState>
   </autoFilter>
   <mergeCells count="17">
+    <mergeCell ref="D2:U2"/>
+    <mergeCell ref="D3:U3"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="D5:U5"/>
+    <mergeCell ref="D6:U6"/>
     <mergeCell ref="AB7:AF7"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -20435,11 +20430,6 @@
     <mergeCell ref="J7:S7"/>
     <mergeCell ref="T7:Y7"/>
     <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="D2:U2"/>
-    <mergeCell ref="D3:U3"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="D5:U5"/>
-    <mergeCell ref="D6:U6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B7:B8">
